--- a/DML_Project_Sreekanth/src/objects/Repository.xlsx
+++ b/DML_Project_Sreekanth/src/objects/Repository.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="11850" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="13560" windowHeight="5175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ObjectName</t>
   </si>
@@ -40,10 +40,13 @@
     <t>uname</t>
   </si>
   <si>
-    <t>pd</t>
-  </si>
-  <si>
-    <t>lg</t>
+    <t>//input[@name='id']</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>//input[@name='pass']</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,18 +460,20 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/DML_Project_Sreekanth/src/objects/Repository.xlsx
+++ b/DML_Project_Sreekanth/src/objects/Repository.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="13560" windowHeight="5175"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="13290" windowHeight="5250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,19 +34,19 @@
     <t>firefox</t>
   </si>
   <si>
-    <t>http://dmlogics.in/build1/Loging.html</t>
-  </si>
-  <si>
-    <t>uname</t>
-  </si>
-  <si>
-    <t>//input[@name='id']</t>
+    <t>useid</t>
+  </si>
+  <si>
+    <t>//input[@id='email']</t>
+  </si>
+  <si>
+    <t>//input[@id='pass']</t>
   </si>
   <si>
     <t>pwd</t>
   </si>
   <si>
-    <t>//input[@name='pass']</t>
+    <t>https://www.facebook.com/</t>
   </si>
 </sst>
 </file>
@@ -116,8 +116,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,8 +444,8 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,23 +457,23 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,6 +489,9 @@
       <c r="B9" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
